--- a/Team_info.xlsx
+++ b/Team_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyoonseo/Project/NBA_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01C19272-565A-DE46-8983-E831E343C35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D086B90E-5730-434F-88C5-81A3C6C8DC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15900" xr2:uid="{46D89B89-E084-FF4D-80FC-6F597E91C338}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{46D89B89-E084-FF4D-80FC-6F597E91C338}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Brisbane Bullets</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
   </si>
 </sst>
 </file>
@@ -393,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B828E596-641A-1943-956A-C4F3AC6E58C9}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -413,6 +503,241 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
